--- a/biology/Médecine/Bernhard_Studer_(homme_politique)/Bernhard_Studer_(homme_politique).xlsx
+++ b/biology/Médecine/Bernhard_Studer_(homme_politique)/Bernhard_Studer_(homme_politique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernhard Studer, né le 7 avril 1820 à Berne et mort le 19 octobre 1911 dans la même ville, est une personnalité politique et un pharmacien suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir suivi ses études de pharmacien à l'université de Bonn, il reprend la pharmacie de son père en 1856 ; il fonde la société cantonale bernoise de pharmacie en 1861 et la préside jusqu'en 1878. 
 Sur le plan politique, il est élu au législatif et à l'exécutif de la bourgeoisie puis de la ville de Berne. Il est ensuite élu comme député au Grand Conseil du canton de Berne de 1878 à 1882.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Braun, « Studer, Bernhard » dans le Dictionnaire historique de la Suisse en ligne, version du 17 juillet 2012.
  Portail de la politique suisse   Portail de l’Espace Mittelland   Portail de la pharmacie                   </t>
